--- a/cbrunner/Parameters/Workbook_LandCarbonBalance.xlsx
+++ b/cbrunner/Parameters/Workbook_LandCarbonBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9988407F-CE23-40F3-98D3-34B74600419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96932644-736D-415A-AE4E-BD300E219813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{61926CC2-A15F-48AB-ADDB-EBAF3555CB0C}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{61926CC2-A15F-48AB-ADDB-EBAF3555CB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Units</t>
   </si>
@@ -93,6 +93,45 @@
   </si>
   <si>
     <t>NEE in 1990</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>NEE (2017-2021)</t>
+  </si>
+  <si>
+    <t>MtCO2e/yr</t>
+  </si>
+  <si>
+    <t>Area of BC Forest</t>
+  </si>
+  <si>
+    <t>Growth (NPP) (2017-2021)</t>
+  </si>
+  <si>
+    <t>tC/ha/yr</t>
+  </si>
+  <si>
+    <t>FCS NEE</t>
+  </si>
+  <si>
+    <t>FCS Net GHG balance</t>
+  </si>
+  <si>
+    <t>LCComp1</t>
+  </si>
+  <si>
+    <t>Field plots</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>Growth gross</t>
+  </si>
+  <si>
+    <t>Forest Carbon Summary</t>
   </si>
 </sst>
 </file>
@@ -111,18 +150,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,15 +184,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +256,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -318,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,176 +512,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A67880-38F2-414C-9E05-8C488DC0BD95}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1958000000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2342858000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>62000000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B6" s="2">
         <v>3.1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>1.4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1958000000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <f>B3*3.667*1000000000/B5</f>
+      <c r="B8" s="7">
+        <f>B7*3.667*1000000000/B2</f>
         <v>2.6219611848825326</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2342858000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <f>B3*3.667*1000000000/B8</f>
+      <c r="B9" s="7">
+        <f>B7*3.667*1000000000/B3</f>
         <v>2.1912552958822085</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>0.03+0.01</f>
+        <v>0.04</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>0.03+0.01</f>
-        <v>0.04</v>
+      <c r="B11" s="7">
+        <f>B10*3.667/1000*10000</f>
+        <v>1.4667999999999999</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f>B11*3.667/1000*10000</f>
-        <v>1.4667999999999999</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
+        <f>90*1000000/B4</f>
+        <v>1.4516129032258065</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <f>90*1000000/62000000</f>
-        <v>1.4516129032258065</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6">
+        <f>786-784</f>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <f>B15*1000000/B4</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>140*1000000/62000000</f>
-        <v>2.2580645161290325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>786</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B17*1000000/B4</f>
+        <v>12.67741935483871</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
+        <f>B18/3.667</f>
+        <v>3.4571637182543524</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>-160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <f>B21*1000000/B4</f>
+        <v>-2.5806451612903225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>-125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <f>B23*1000000/B4</f>
+        <v>-2.0161290322580645</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>1.55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <f>B26*3.667</f>
+        <v>5.6838499999999996</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <f>3.667*B28</f>
+        <v>10.6343</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8">
+        <f>B29*B4/1000000</f>
+        <v>659.32659999999998</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Workbook_LandCarbonBalance.xlsx
+++ b/cbrunner/Parameters/Workbook_LandCarbonBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96932644-736D-415A-AE4E-BD300E219813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14280CED-85F1-4650-8617-E2A2AF494A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{61926CC2-A15F-48AB-ADDB-EBAF3555CB0C}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{61926CC2-A15F-48AB-ADDB-EBAF3555CB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +163,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +216,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A67880-38F2-414C-9E05-8C488DC0BD95}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -719,8 +741,9 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -731,8 +754,9 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -744,7 +768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -758,7 +782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <f>B21*1000000/B4</f>
         <v>-2.5806451612903225</v>
@@ -767,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -781,7 +805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <f>B23*1000000/B4</f>
         <v>-2.0161290322580645</v>
@@ -790,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -804,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <f>B26*3.667</f>
         <v>5.6838499999999996</v>
@@ -813,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -824,7 +848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <f>3.667*B28</f>
         <v>10.6343</v>
@@ -836,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <f>B29*B4/1000000</f>
         <v>659.32659999999998</v>
